--- a/TestData/Test.xlsx
+++ b/TestData/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Website\ProtDEX App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF4416A9-41E5-4C32-BCCB-C1315BCB3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32F425E-2520-4E27-840A-DD72065F33E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{EDE734F4-B942-4D5F-A028-3383222DF2B4}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>Protein.Names</t>
   </si>
   <si>
-    <t>Protein.Group</t>
-  </si>
-  <si>
-    <t>Protein.Ids</t>
-  </si>
-  <si>
     <t>Genes</t>
   </si>
   <si>
@@ -43,9 +37,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>A0A0B4J2D5;P0DPI2</t>
-  </si>
-  <si>
     <t>GAL3A_HUMAN;GAL3B_HUMAN</t>
   </si>
   <si>
@@ -55,9 +46,6 @@
     <t>Putative glutamine amidotransferase-like class 1 domain-containing protein 3B, mitochondrial</t>
   </si>
   <si>
-    <t>A0AVT1</t>
-  </si>
-  <si>
     <t>UBA6_HUMAN</t>
   </si>
   <si>
@@ -67,9 +55,6 @@
     <t>Ubiquitin-like modifier-activating enzyme 6</t>
   </si>
   <si>
-    <t>A0FGR8</t>
-  </si>
-  <si>
     <t>ESYT2_HUMAN</t>
   </si>
   <si>
@@ -79,9 +64,6 @@
     <t>Extended synaptotagmin-2</t>
   </si>
   <si>
-    <t>A0MZ66</t>
-  </si>
-  <si>
     <t>SHOT1_HUMAN</t>
   </si>
   <si>
@@ -91,9 +73,6 @@
     <t>Shootin-1</t>
   </si>
   <si>
-    <t>A1L0T0</t>
-  </si>
-  <si>
     <t>HACL2_HUMAN</t>
   </si>
   <si>
@@ -103,9 +82,6 @@
     <t>2-hydroxyacyl-CoA lyase 2</t>
   </si>
   <si>
-    <t>A1X283</t>
-  </si>
-  <si>
     <t>SPD2B_HUMAN</t>
   </si>
   <si>
@@ -115,9 +91,6 @@
     <t>SH3 and PX domain-containing protein 2B</t>
   </si>
   <si>
-    <t>A2RRP1</t>
-  </si>
-  <si>
     <t>NBAS_HUMAN</t>
   </si>
   <si>
@@ -127,9 +100,6 @@
     <t>NBAS subunit of NRZ tethering complex</t>
   </si>
   <si>
-    <t>A2RU67</t>
-  </si>
-  <si>
     <t>F234B_HUMAN</t>
   </si>
   <si>
@@ -139,12 +109,6 @@
     <t>Protein FAM234B</t>
   </si>
   <si>
-    <t>A5A3E0;P0CG38;P0CG39;Q6S8J3</t>
-  </si>
-  <si>
-    <t>A0JP26;A5A3E0;Q6S8J3;B2RU33;P0CG38;P0CG39;A0A0A6YYL3;Q6S545;Q6S5H5;Q6S8J7;A6NI47;H3BUK9</t>
-  </si>
-  <si>
     <t>POTEE_HUMAN;POTEF_HUMAN;POTEI_HUMAN;POTEJ_HUMAN</t>
   </si>
   <si>
@@ -154,9 +118,6 @@
     <t>POTE ankyrin domain family member F</t>
   </si>
   <si>
-    <t>A5D8W1</t>
-  </si>
-  <si>
     <t>CFA69_HUMAN</t>
   </si>
   <si>
@@ -166,9 +127,6 @@
     <t>Cilia- and flagella-associated protein 69</t>
   </si>
   <si>
-    <t>A5YKK6</t>
-  </si>
-  <si>
     <t>CNOT1_HUMAN</t>
   </si>
   <si>
@@ -178,9 +136,6 @@
     <t>CCR4-NOT transcription complex subunit 1</t>
   </si>
   <si>
-    <t>A6ND36</t>
-  </si>
-  <si>
     <t>FA83G_HUMAN</t>
   </si>
   <si>
@@ -190,9 +145,6 @@
     <t>Protein FAM83G</t>
   </si>
   <si>
-    <t>A6NDG6</t>
-  </si>
-  <si>
     <t>PGP_HUMAN</t>
   </si>
   <si>
@@ -202,9 +154,6 @@
     <t>Glycerol-3-phosphate phosphatase</t>
   </si>
   <si>
-    <t>A6NHR9</t>
-  </si>
-  <si>
     <t>SMHD1_HUMAN</t>
   </si>
   <si>
@@ -214,9 +163,6 @@
     <t>Structural maintenance of chromosomes flexible hinge domain-containing protein 1</t>
   </si>
   <si>
-    <t>A6NJ78</t>
-  </si>
-  <si>
     <t>MET15_HUMAN</t>
   </si>
   <si>
@@ -226,9 +172,6 @@
     <t>12S rRNA N4-methylcytidine (m4C) methyltransferase</t>
   </si>
   <si>
-    <t>A6NKT7;Q7Z3J3</t>
-  </si>
-  <si>
     <t>RGPD3_HUMAN;RGPD4_HUMAN</t>
   </si>
   <si>
@@ -238,9 +181,6 @@
     <t>RanBP2-like and GRIP domain-containing protein 3</t>
   </si>
   <si>
-    <t>A6NM62</t>
-  </si>
-  <si>
     <t>LRC53_HUMAN</t>
   </si>
   <si>
@@ -250,9 +190,6 @@
     <t>Leucine-rich repeat-containing protein 53</t>
   </si>
   <si>
-    <t>A8CG34;Q96HA1</t>
-  </si>
-  <si>
     <t>P121A_HUMAN;P121C_HUMAN</t>
   </si>
   <si>
@@ -262,12 +199,6 @@
     <t>Nuclear envelope pore membrane protein POM 121C</t>
   </si>
   <si>
-    <t>A8MWD9;P62308</t>
-  </si>
-  <si>
-    <t>P62308;A8MWD9</t>
-  </si>
-  <si>
     <t>RUXGL_HUMAN;RUXG_HUMAN</t>
   </si>
   <si>
@@ -277,9 +208,6 @@
     <t>Putative small nuclear ribonucleoprotein G-like protein 15</t>
   </si>
   <si>
-    <t>A9QM74</t>
-  </si>
-  <si>
     <t>IMA8_HUMAN</t>
   </si>
   <si>
@@ -289,9 +217,6 @@
     <t>Importin subunit alpha-8</t>
   </si>
   <si>
-    <t>B1AK53</t>
-  </si>
-  <si>
     <t>ESPN_HUMAN</t>
   </si>
   <si>
@@ -301,12 +226,6 @@
     <t>Espin</t>
   </si>
   <si>
-    <t>E9PAV3;Q13765</t>
-  </si>
-  <si>
-    <t>Q13765;E9PAV3</t>
-  </si>
-  <si>
     <t>NACAM_HUMAN;NACA_HUMAN</t>
   </si>
   <si>
@@ -316,9 +235,6 @@
     <t>Nascent polypeptide-associated complex subunit alpha, muscle-specific form</t>
   </si>
   <si>
-    <t>E9PRG8</t>
-  </si>
-  <si>
     <t>CK098_HUMAN</t>
   </si>
   <si>
@@ -328,9 +244,6 @@
     <t>Uncharacterized protein C11orf98</t>
   </si>
   <si>
-    <t>O00115</t>
-  </si>
-  <si>
     <t>DNS2A_HUMAN</t>
   </si>
   <si>
@@ -340,9 +253,6 @@
     <t>Deoxyribonuclease-2-alpha</t>
   </si>
   <si>
-    <t>O60701</t>
-  </si>
-  <si>
     <t>UGDH_HUMAN</t>
   </si>
   <si>
@@ -352,9 +262,6 @@
     <t>UDP-glucose 6-dehydrogenase</t>
   </si>
   <si>
-    <t>O60716</t>
-  </si>
-  <si>
     <t>CTND1_HUMAN</t>
   </si>
   <si>
@@ -364,9 +271,6 @@
     <t>Catenin delta-1</t>
   </si>
   <si>
-    <t>O60749</t>
-  </si>
-  <si>
     <t>SNX2_HUMAN</t>
   </si>
   <si>
@@ -376,9 +280,6 @@
     <t>Sorting nexin-2</t>
   </si>
   <si>
-    <t>O60762</t>
-  </si>
-  <si>
     <t>DPM1_HUMAN</t>
   </si>
   <si>
@@ -388,9 +289,6 @@
     <t>Dolichol-phosphate mannosyltransferase subunit 1</t>
   </si>
   <si>
-    <t>O60763</t>
-  </si>
-  <si>
     <t>USO1_HUMAN</t>
   </si>
   <si>
@@ -400,9 +298,6 @@
     <t>General vesicular transport factor p115</t>
   </si>
   <si>
-    <t>O60783</t>
-  </si>
-  <si>
     <t>RT14_HUMAN</t>
   </si>
   <si>
@@ -412,9 +307,6 @@
     <t>Small ribosomal subunit protein uS14m</t>
   </si>
   <si>
-    <t>O60784</t>
-  </si>
-  <si>
     <t>TOM1_HUMAN</t>
   </si>
   <si>
@@ -424,12 +316,6 @@
     <t>Target of Myb1 membrane trafficking protein</t>
   </si>
   <si>
-    <t>O60814;P57053;P62807</t>
-  </si>
-  <si>
-    <t>O60814;P06899;P23527;P33778;P57053;P58876;P62807;Q16778;Q5QNW6;Q6DN03;Q6DRA6;Q8N257;Q93079;Q99877;Q99879;Q99880</t>
-  </si>
-  <si>
     <t>H2B1C_HUMAN;H2B1K_HUMAN;H2BFS_HUMAN</t>
   </si>
   <si>
@@ -439,9 +325,6 @@
     <t>Histone H2B type 1-K</t>
   </si>
   <si>
-    <t>O60826</t>
-  </si>
-  <si>
     <t>CCD22_HUMAN</t>
   </si>
   <si>
@@ -451,9 +334,6 @@
     <t>Coiled-coil domain-containing protein 22</t>
   </si>
   <si>
-    <t>O60828</t>
-  </si>
-  <si>
     <t>PQBP1_HUMAN</t>
   </si>
   <si>
@@ -463,9 +343,6 @@
     <t>Polyglutamine-binding protein 1</t>
   </si>
   <si>
-    <t>O60831</t>
-  </si>
-  <si>
     <t>PRAF2_HUMAN</t>
   </si>
   <si>
@@ -475,9 +352,6 @@
     <t>PRA1 family protein 2</t>
   </si>
   <si>
-    <t>O60832</t>
-  </si>
-  <si>
     <t>DKC1_HUMAN</t>
   </si>
   <si>
@@ -487,9 +361,6 @@
     <t>H/ACA ribonucleoprotein complex subunit DKC1</t>
   </si>
   <si>
-    <t>O60841</t>
-  </si>
-  <si>
     <t>IF2P_HUMAN</t>
   </si>
   <si>
@@ -499,9 +370,6 @@
     <t>Eukaryotic translation initiation factor 5B</t>
   </si>
   <si>
-    <t>O60869</t>
-  </si>
-  <si>
     <t>EDF1_HUMAN</t>
   </si>
   <si>
@@ -509,9 +377,6 @@
   </si>
   <si>
     <t>Endothelial differentiation-related factor 1</t>
-  </si>
-  <si>
-    <t>O60884</t>
   </si>
   <si>
     <t>DNJA2_HUMAN</t>
@@ -1004,14 +869,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1368,1405 +1230,1156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258973F5-F02B-4DB3-A664-CBB27E9B37C7}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" customWidth="1"/>
-    <col min="4" max="4" width="19.9296875" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" customWidth="1"/>
+    <col min="1" max="1" width="20.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.9296875" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" customWidth="1"/>
+    <col min="4" max="4" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>1320630</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1514540</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1532550</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1453600</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1452370</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1451320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3">
-        <v>1320630</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1514540</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1532550</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1453600</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1452370</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1451320</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>3894550</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4049460</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4020390</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3654530</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3649010</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3815510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="2">
+        <v>1203900</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1118620</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1312500</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1438380</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1374110</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1409320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3">
-        <v>3894550</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4049460</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4020390</v>
-      </c>
-      <c r="I3" s="3">
-        <v>3654530</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3649010</v>
-      </c>
-      <c r="K3" s="3">
-        <v>3815510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2">
+        <v>2984950</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2977390</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3001680</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3278070</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3341670</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3337530</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3">
-        <v>1203900</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1118620</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1312500</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1438380</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1374110</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1409320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E6">
+        <v>845122</v>
+      </c>
+      <c r="F6">
+        <v>802830</v>
+      </c>
+      <c r="G6">
+        <v>914329</v>
+      </c>
+      <c r="H6">
+        <v>901962</v>
+      </c>
+      <c r="I6">
+        <v>926794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3">
-        <v>2984950</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2977390</v>
-      </c>
-      <c r="H5" s="3">
-        <v>3001680</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3278070</v>
-      </c>
-      <c r="J5" s="3">
-        <v>3341670</v>
-      </c>
-      <c r="K5" s="3">
-        <v>3337530</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="D7">
+        <v>897928</v>
+      </c>
+      <c r="E7">
+        <v>869813</v>
+      </c>
+      <c r="F7">
+        <v>871855</v>
+      </c>
+      <c r="G7">
+        <v>967905</v>
+      </c>
+      <c r="H7">
+        <v>988295</v>
+      </c>
+      <c r="I7">
+        <v>975677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D8">
+        <v>430620</v>
+      </c>
+      <c r="E8">
+        <v>427238</v>
+      </c>
+      <c r="F8">
+        <v>528916</v>
+      </c>
+      <c r="G8">
+        <v>493818</v>
+      </c>
+      <c r="H8">
+        <v>460172</v>
+      </c>
+      <c r="I8">
+        <v>450674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>845122</v>
-      </c>
-      <c r="H6" s="2">
-        <v>802830</v>
-      </c>
-      <c r="I6" s="2">
-        <v>914329</v>
-      </c>
-      <c r="J6" s="2">
-        <v>901962</v>
-      </c>
-      <c r="K6" s="2">
-        <v>926794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9">
+        <v>113121</v>
+      </c>
+      <c r="E9">
+        <v>72636.399999999994</v>
+      </c>
+      <c r="F9">
+        <v>77502.600000000006</v>
+      </c>
+      <c r="G9">
+        <v>108054</v>
+      </c>
+      <c r="H9">
+        <v>147563</v>
+      </c>
+      <c r="I9">
+        <v>134574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2">
-        <v>897928</v>
-      </c>
-      <c r="G7" s="2">
-        <v>869813</v>
-      </c>
-      <c r="H7" s="2">
-        <v>871855</v>
-      </c>
-      <c r="I7" s="2">
-        <v>967905</v>
-      </c>
-      <c r="J7" s="2">
-        <v>988295</v>
-      </c>
-      <c r="K7" s="2">
-        <v>975677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="C10" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D10" s="2">
+        <v>8916020</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5226670</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5708400</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12511300</v>
+      </c>
+      <c r="H10" s="2">
+        <v>11610300</v>
+      </c>
+      <c r="I10" s="2">
+        <v>12078800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2">
-        <v>430620</v>
-      </c>
-      <c r="G8" s="2">
-        <v>427238</v>
-      </c>
-      <c r="H8" s="2">
-        <v>528916</v>
-      </c>
-      <c r="I8" s="2">
-        <v>493818</v>
-      </c>
-      <c r="J8" s="2">
-        <v>460172</v>
-      </c>
-      <c r="K8" s="2">
-        <v>450674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="D11" s="2">
+        <v>1540880</v>
+      </c>
+      <c r="E11">
+        <v>588007</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1357230</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1743070</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1702540</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1592740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D12" s="2">
+        <v>1806200</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2059330</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2174360</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1919490</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2157710</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2136200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2">
-        <v>113121</v>
-      </c>
-      <c r="G9" s="2">
-        <v>72636.399999999994</v>
-      </c>
-      <c r="H9" s="2">
-        <v>77502.600000000006</v>
-      </c>
-      <c r="I9" s="2">
-        <v>108054</v>
-      </c>
-      <c r="J9" s="2">
-        <v>147563</v>
-      </c>
-      <c r="K9" s="2">
-        <v>134574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C13" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D13">
+        <v>99167.6</v>
+      </c>
+      <c r="E13">
+        <v>83222.5</v>
+      </c>
+      <c r="F13">
+        <v>30197.200000000001</v>
+      </c>
+      <c r="H13">
+        <v>38588.5</v>
+      </c>
+      <c r="I13">
+        <v>48492.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3">
-        <v>8916020</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5226670</v>
-      </c>
-      <c r="H10" s="3">
-        <v>5708400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>12511300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>11610300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>12078800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="D14" s="2">
+        <v>4609770</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4348440</v>
+      </c>
+      <c r="F14" s="2">
+        <v>4072310</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4170290</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4257900</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4228740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D15" s="2">
+        <v>1184360</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1155670</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1167670</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1231990</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1166720</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1115400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="3">
-        <v>1540880</v>
-      </c>
-      <c r="G11" s="2">
-        <v>588007</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1357230</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1743070</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1702540</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1592740</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D16">
+        <v>800491</v>
+      </c>
+      <c r="E16">
+        <v>851914</v>
+      </c>
+      <c r="F16">
+        <v>815438</v>
+      </c>
+      <c r="G16">
+        <v>712165</v>
+      </c>
+      <c r="H16">
+        <v>738677</v>
+      </c>
+      <c r="I16">
+        <v>657525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="3">
-        <v>1806200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>2059330</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2174360</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1919490</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2157710</v>
-      </c>
-      <c r="K12" s="3">
-        <v>2136200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D17" s="2">
+        <v>1412070</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1388960</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1299820</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1337340</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1378870</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1443520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="2">
-        <v>99167.6</v>
-      </c>
-      <c r="G13" s="2">
-        <v>83222.5</v>
-      </c>
-      <c r="H13" s="2">
-        <v>30197.200000000001</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2">
-        <v>38588.5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>48492.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="D18">
+        <v>31296.6</v>
+      </c>
+      <c r="E18">
+        <v>35895.699999999997</v>
+      </c>
+      <c r="F18">
+        <v>30969.7</v>
+      </c>
+      <c r="G18">
+        <v>248735</v>
+      </c>
+      <c r="H18">
+        <v>189213</v>
+      </c>
+      <c r="I18">
+        <v>196575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D19">
+        <v>229274</v>
+      </c>
+      <c r="E19">
+        <v>225767</v>
+      </c>
+      <c r="F19">
+        <v>206252</v>
+      </c>
+      <c r="G19">
+        <v>245262</v>
+      </c>
+      <c r="H19">
+        <v>225842</v>
+      </c>
+      <c r="I19">
+        <v>242030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="3">
-        <v>4609770</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4348440</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4072310</v>
-      </c>
-      <c r="I14" s="3">
-        <v>4170290</v>
-      </c>
-      <c r="J14" s="3">
-        <v>4257900</v>
-      </c>
-      <c r="K14" s="3">
-        <v>4228740</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D20" s="2">
+        <v>2556330</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3097040</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3013000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1071890</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1295690</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1197170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="3">
-        <v>1184360</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1155670</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1167670</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1231990</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1166720</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1115400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D21">
+        <v>399091</v>
+      </c>
+      <c r="E21">
+        <v>578006</v>
+      </c>
+      <c r="F21">
+        <v>660979</v>
+      </c>
+      <c r="G21">
+        <v>383606</v>
+      </c>
+      <c r="H21">
+        <v>403204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="2">
-        <v>800491</v>
-      </c>
-      <c r="G16" s="2">
-        <v>851914</v>
-      </c>
-      <c r="H16" s="2">
-        <v>815438</v>
-      </c>
-      <c r="I16" s="2">
-        <v>712165</v>
-      </c>
-      <c r="J16" s="2">
-        <v>738677</v>
-      </c>
-      <c r="K16" s="2">
-        <v>657525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="D22">
+        <v>634145</v>
+      </c>
+      <c r="E22">
+        <v>599857</v>
+      </c>
+      <c r="F22">
+        <v>634051</v>
+      </c>
+      <c r="G22">
+        <v>879374</v>
+      </c>
+      <c r="H22">
+        <v>886259</v>
+      </c>
+      <c r="I22">
+        <v>816106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D23" s="2">
+        <v>10988600</v>
+      </c>
+      <c r="E23" s="2">
+        <v>11385700</v>
+      </c>
+      <c r="F23" s="2">
+        <v>11585400</v>
+      </c>
+      <c r="G23" s="2">
+        <v>9542470</v>
+      </c>
+      <c r="H23" s="2">
+        <v>10082600</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9931750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="3">
-        <v>1412070</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1388960</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1299820</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1337340</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1378870</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1443520</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
+      <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D24" s="2">
+        <v>2317010</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2317020</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2436240</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1661010</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1553800</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1532680</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="2">
-        <v>31296.6</v>
-      </c>
-      <c r="G18" s="2">
-        <v>35895.699999999997</v>
-      </c>
-      <c r="H18" s="2">
-        <v>30969.7</v>
-      </c>
-      <c r="I18" s="2">
-        <v>248735</v>
-      </c>
-      <c r="J18" s="2">
-        <v>189213</v>
-      </c>
-      <c r="K18" s="2">
-        <v>196575</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E25">
+        <v>383333</v>
+      </c>
+      <c r="F25">
+        <v>269120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="2">
-        <v>229274</v>
-      </c>
-      <c r="G19" s="2">
-        <v>225767</v>
-      </c>
-      <c r="H19" s="2">
-        <v>206252</v>
-      </c>
-      <c r="I19" s="2">
-        <v>245262</v>
-      </c>
-      <c r="J19" s="2">
-        <v>225842</v>
-      </c>
-      <c r="K19" s="2">
-        <v>242030</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="D26" s="2">
+        <v>5716490</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5347620</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5313840</v>
+      </c>
+      <c r="G26" s="2">
+        <v>6300160</v>
+      </c>
+      <c r="H26" s="2">
+        <v>6392620</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6271290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D27" s="2">
+        <v>3704820</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3854130</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3873640</v>
+      </c>
+      <c r="G27" s="2">
+        <v>3743850</v>
+      </c>
+      <c r="H27" s="2">
+        <v>3682100</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3803190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="3">
-        <v>2556330</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3097040</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3013000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1071890</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1295690</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1197170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D28" s="2">
+        <v>2623080</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2566310</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2381640</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2497390</v>
+      </c>
+      <c r="H28" s="2">
+        <v>2550520</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2321060</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="C29" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="2">
-        <v>399091</v>
-      </c>
-      <c r="G21" s="2">
-        <v>578006</v>
-      </c>
-      <c r="H21" s="2">
-        <v>660979</v>
-      </c>
-      <c r="I21" s="2">
-        <v>383606</v>
-      </c>
-      <c r="J21" s="2">
-        <v>403204</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="D29" s="2">
+        <v>1768610</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1873510</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1731100</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1523510</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1590250</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1469530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B30" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="D30" s="2">
+        <v>3474300</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3568410</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3598010</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3404030</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3259500</v>
+      </c>
+      <c r="I30" s="2">
+        <v>3349380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="2">
-        <v>634145</v>
-      </c>
-      <c r="G22" s="2">
-        <v>599857</v>
-      </c>
-      <c r="H22" s="2">
-        <v>634051</v>
-      </c>
-      <c r="I22" s="2">
-        <v>879374</v>
-      </c>
-      <c r="J22" s="2">
-        <v>886259</v>
-      </c>
-      <c r="K22" s="2">
-        <v>816106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="B31" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C31" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D31">
+        <v>993254</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1019300</v>
+      </c>
+      <c r="F31">
+        <v>944380</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1310450</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1401890</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1348980</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="B32" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="C32" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="3">
-        <v>10988600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>11385700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>11585400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>9542470</v>
-      </c>
-      <c r="J23" s="3">
-        <v>10082600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>9931750</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="D32">
+        <v>513043</v>
+      </c>
+      <c r="E32">
+        <v>397604</v>
+      </c>
+      <c r="F32">
+        <v>342099</v>
+      </c>
+      <c r="G32">
+        <v>240164</v>
+      </c>
+      <c r="H32">
+        <v>509761</v>
+      </c>
+      <c r="I32">
+        <v>494648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B33" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C33" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D33" s="2">
+        <v>1270800000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>931248000</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1054350000</v>
+      </c>
+      <c r="G33" s="2">
+        <v>843412000</v>
+      </c>
+      <c r="H33" s="2">
+        <v>847394000</v>
+      </c>
+      <c r="I33" s="2">
+        <v>892818000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="3">
-        <v>2317010</v>
-      </c>
-      <c r="G24" s="3">
-        <v>2317020</v>
-      </c>
-      <c r="H24" s="3">
-        <v>2436240</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1661010</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1553800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1532680</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+      <c r="B34" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="C34" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D34" s="2">
+        <v>1204580</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1172180</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1151370</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1415700</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1402580</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1285370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>383333</v>
-      </c>
-      <c r="H25" s="2">
-        <v>269120</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
+      <c r="C35" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="D35" s="2">
+        <v>2056110</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2121590</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2279530</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2467450</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1851880</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2437770</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="B36" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="F26" s="5">
-        <v>5716490</v>
-      </c>
-      <c r="G26" s="5">
-        <v>5347620</v>
-      </c>
-      <c r="H26" s="5">
-        <v>5313840</v>
-      </c>
-      <c r="I26" s="5">
-        <v>6300160</v>
-      </c>
-      <c r="J26" s="5">
-        <v>6392620</v>
-      </c>
-      <c r="K26" s="5">
-        <v>6271290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="4" t="s">
+      <c r="D36" s="2">
+        <v>1003090</v>
+      </c>
+      <c r="E36">
+        <v>972865</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1017630</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1073130</v>
+      </c>
+      <c r="H36">
+        <v>994265</v>
+      </c>
+      <c r="I36">
+        <v>978086</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="B37" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C37" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="D37" s="2">
+        <v>1791020</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1911360</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1927900</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1603800</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1583810</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1635470</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
         <v>113</v>
       </c>
-      <c r="F27" s="5">
-        <v>3704820</v>
-      </c>
-      <c r="G27" s="5">
-        <v>3854130</v>
-      </c>
-      <c r="H27" s="5">
-        <v>3873640</v>
-      </c>
-      <c r="I27" s="5">
-        <v>3743850</v>
-      </c>
-      <c r="J27" s="5">
-        <v>3682100</v>
-      </c>
-      <c r="K27" s="5">
-        <v>3803190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="4" t="s">
+      <c r="B38" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="C38" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D38" s="2">
+        <v>6980430</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7239530</v>
+      </c>
+      <c r="F38" s="2">
+        <v>6926580</v>
+      </c>
+      <c r="G38" s="2">
+        <v>6055440</v>
+      </c>
+      <c r="H38" s="2">
+        <v>6158770</v>
+      </c>
+      <c r="I38" s="2">
+        <v>6710050</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="B39" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="5">
-        <v>2623080</v>
-      </c>
-      <c r="G28" s="5">
-        <v>2566310</v>
-      </c>
-      <c r="H28" s="5">
-        <v>2381640</v>
-      </c>
-      <c r="I28" s="5">
-        <v>2497390</v>
-      </c>
-      <c r="J28" s="5">
-        <v>2550520</v>
-      </c>
-      <c r="K28" s="5">
-        <v>2321060</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="4" t="s">
+      <c r="C39" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="4" t="s">
+      <c r="D39" s="2">
+        <v>3861330</v>
+      </c>
+      <c r="E39" s="2">
+        <v>4051820</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4309030</v>
+      </c>
+      <c r="G39" s="2">
+        <v>4388160</v>
+      </c>
+      <c r="H39" s="2">
+        <v>4483210</v>
+      </c>
+      <c r="I39" s="2">
+        <v>4512610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="B40" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="C40" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="5">
-        <v>1768610</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1873510</v>
-      </c>
-      <c r="H29" s="5">
-        <v>1731100</v>
-      </c>
-      <c r="I29" s="5">
-        <v>1523510</v>
-      </c>
-      <c r="J29" s="5">
-        <v>1590250</v>
-      </c>
-      <c r="K29" s="5">
-        <v>1469530</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3474300</v>
-      </c>
-      <c r="G30" s="5">
-        <v>3568410</v>
-      </c>
-      <c r="H30" s="5">
-        <v>3598010</v>
-      </c>
-      <c r="I30" s="5">
-        <v>3404030</v>
-      </c>
-      <c r="J30" s="5">
-        <v>3259500</v>
-      </c>
-      <c r="K30" s="5">
-        <v>3349380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="4">
-        <v>993254</v>
-      </c>
-      <c r="G31" s="5">
-        <v>1019300</v>
-      </c>
-      <c r="H31" s="4">
-        <v>944380</v>
-      </c>
-      <c r="I31" s="5">
-        <v>1310450</v>
-      </c>
-      <c r="J31" s="5">
-        <v>1401890</v>
-      </c>
-      <c r="K31" s="5">
-        <v>1348980</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="4">
-        <v>513043</v>
-      </c>
-      <c r="G32" s="4">
-        <v>397604</v>
-      </c>
-      <c r="H32" s="4">
-        <v>342099</v>
-      </c>
-      <c r="I32" s="4">
-        <v>240164</v>
-      </c>
-      <c r="J32" s="4">
-        <v>509761</v>
-      </c>
-      <c r="K32" s="4">
-        <v>494648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1270800000</v>
-      </c>
-      <c r="G33" s="5">
-        <v>931248000</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1054350000</v>
-      </c>
-      <c r="I33" s="5">
-        <v>843412000</v>
-      </c>
-      <c r="J33" s="5">
-        <v>847394000</v>
-      </c>
-      <c r="K33" s="5">
-        <v>892818000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1204580</v>
-      </c>
-      <c r="G34" s="5">
-        <v>1172180</v>
-      </c>
-      <c r="H34" s="5">
-        <v>1151370</v>
-      </c>
-      <c r="I34" s="5">
-        <v>1415700</v>
-      </c>
-      <c r="J34" s="5">
-        <v>1402580</v>
-      </c>
-      <c r="K34" s="5">
-        <v>1285370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2056110</v>
-      </c>
-      <c r="G35" s="5">
-        <v>2121590</v>
-      </c>
-      <c r="H35" s="5">
-        <v>2279530</v>
-      </c>
-      <c r="I35" s="5">
-        <v>2467450</v>
-      </c>
-      <c r="J35" s="5">
-        <v>1851880</v>
-      </c>
-      <c r="K35" s="5">
-        <v>2437770</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1003090</v>
-      </c>
-      <c r="G36" s="4">
-        <v>972865</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1017630</v>
-      </c>
-      <c r="I36" s="5">
-        <v>1073130</v>
-      </c>
-      <c r="J36" s="4">
-        <v>994265</v>
-      </c>
-      <c r="K36" s="4">
-        <v>978086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1791020</v>
-      </c>
-      <c r="G37" s="5">
-        <v>1911360</v>
-      </c>
-      <c r="H37" s="5">
-        <v>1927900</v>
-      </c>
-      <c r="I37" s="5">
-        <v>1603800</v>
-      </c>
-      <c r="J37" s="5">
-        <v>1583810</v>
-      </c>
-      <c r="K37" s="5">
-        <v>1635470</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" s="5">
-        <v>6980430</v>
-      </c>
-      <c r="G38" s="5">
-        <v>7239530</v>
-      </c>
-      <c r="H38" s="5">
-        <v>6926580</v>
-      </c>
-      <c r="I38" s="5">
-        <v>6055440</v>
-      </c>
-      <c r="J38" s="5">
-        <v>6158770</v>
-      </c>
-      <c r="K38" s="5">
-        <v>6710050</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="5">
-        <v>3861330</v>
-      </c>
-      <c r="G39" s="5">
-        <v>4051820</v>
-      </c>
-      <c r="H39" s="5">
-        <v>4309030</v>
-      </c>
-      <c r="I39" s="5">
-        <v>4388160</v>
-      </c>
-      <c r="J39" s="5">
-        <v>4483210</v>
-      </c>
-      <c r="K39" s="5">
-        <v>4512610</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="D40" s="2">
         <v>6301370</v>
       </c>
-      <c r="G40" s="5">
+      <c r="E40" s="2">
         <v>6956950</v>
       </c>
-      <c r="H40" s="5">
+      <c r="F40" s="2">
         <v>6193660</v>
       </c>
-      <c r="I40" s="5">
+      <c r="G40" s="2">
         <v>4817820</v>
       </c>
-      <c r="J40" s="5">
+      <c r="H40" s="2">
         <v>5372460</v>
       </c>
-      <c r="K40" s="5">
+      <c r="I40" s="2">
         <v>5558590</v>
       </c>
     </row>
